--- a/Documents/gears.xlsx
+++ b/Documents/gears.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\KeyboardSteer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B75714CA-FF8A-4617-8555-29D28EACB476}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA08964-9EEA-47C2-9BD0-2763C5B4B73C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="27000" windowHeight="12810" xr2:uid="{3E53583D-6E83-41D0-94AB-27C9FCC3AB4D}"/>
+    <workbookView xWindow="9000" yWindow="0" windowWidth="27000" windowHeight="12810" activeTab="3" xr2:uid="{3E53583D-6E83-41D0-94AB-27C9FCC3AB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="4x4 42 kmh" sheetId="4" r:id="rId1"/>
     <sheet name="4x4 58 kmh" sheetId="1" r:id="rId2"/>
     <sheet name="2x6 120 kmh" sheetId="3" r:id="rId3"/>
+    <sheet name="Shifter 120 kmh" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>gear</t>
   </si>
@@ -150,6 +156,42 @@
   </si>
   <si>
     <t>idleSpeed</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>1- / R-</t>
+  </si>
+  <si>
+    <t>1+ / R+</t>
   </si>
 </sst>
 </file>
@@ -202,7 +244,69 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="55">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -404,26 +508,108 @@
   <autoFilter ref="A1:H13" xr:uid="{54E20DC8-9795-434B-BCD6-CEDEC7019710}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A411D802-D4B3-4897-9DD9-30858846DF04}" name="gear" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{DB281E69-B53A-4909-81F8-FE01FF0D1CD2}" name="speed" dataDxfId="38" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{DB281E69-B53A-4909-81F8-FE01FF0D1CD2}" name="speed" dataDxfId="52" dataCellStyle="Normal">
       <calculatedColumnFormula>B1*Table29[ratio]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE0998A-557B-483C-AE2A-41635A804407}" name="maxPower" dataDxfId="37" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{1DE0998A-557B-483C-AE2A-41635A804407}" name="maxPower" dataDxfId="51" dataCellStyle="Normal">
       <calculatedColumnFormula>Table15[[#This Row],[speed]]*Table29[maxPower]/Table29[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B71814C3-E6B2-433F-B849-D5CC04728066}" name="idleSpeed" dataDxfId="36">
+    <tableColumn id="8" xr3:uid="{B71814C3-E6B2-433F-B849-D5CC04728066}" name="idleSpeed" dataDxfId="50">
       <calculatedColumnFormula>850*Table15[[#This Row],[speed]]/Table29[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{66069F31-E4C8-4BAD-9A9A-7B8C33A0EBE5}" name="10 km/h" dataDxfId="35" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{66069F31-E4C8-4BAD-9A9A-7B8C33A0EBE5}" name="10 km/h" dataDxfId="49" dataCellStyle="Normal">
       <calculatedColumnFormula>Table29[ratedRpm]*10/Table15[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9EC4389A-3665-4E29-88DB-C61CA399A740}" name="15 km/h" dataDxfId="34" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{9EC4389A-3665-4E29-88DB-C61CA399A740}" name="15 km/h" dataDxfId="48" dataCellStyle="Normal">
       <calculatedColumnFormula>Table29[ratedRpm]*15/Table15[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{41C4EC77-4F67-4FBA-9FDA-EE0245932503}" name="25 km/h" dataDxfId="33" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{41C4EC77-4F67-4FBA-9FDA-EE0245932503}" name="25 km/h" dataDxfId="47" dataCellStyle="Normal">
       <calculatedColumnFormula>Table29[ratedRpm]*25/Table15[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{06F03096-AA3F-40A0-B2FE-A48572708D4B}" name="42 km/h" dataDxfId="32" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{06F03096-AA3F-40A0-B2FE-A48572708D4B}" name="42 km/h" dataDxfId="46" dataCellStyle="Normal">
       <calculatedColumnFormula>Table29[ratedRpm]*42/Table15[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{57920F21-C946-4F43-BE62-82B683546A3D}" name="Table1611" displayName="Table1611" ref="A1:H13" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:H13" xr:uid="{54E20DC8-9795-434B-BCD6-CEDEC7019710}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E04A022D-05A8-4B41-BBB9-9F1875A80B24}" name="gear" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{75987E14-E415-4198-924C-9993E05CCBD0}" name="speed" dataDxfId="11" dataCellStyle="Normal">
+      <calculatedColumnFormula>B1*Table2712[ratio]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9AC23574-E939-4CA0-ABEF-E40988661CF2}" name="maxPower" dataDxfId="10" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1858AA3E-80DD-4C53-8209-B42EF583CA32}" name="idleSpeed" dataDxfId="9">
+      <calculatedColumnFormula>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6290788B-2684-40CC-ACE1-5C4253F144B0}" name="10 km/h" dataDxfId="8" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{34F05CF5-D066-41AE-AAE5-198C1BE744D6}" name="15 km/h" dataDxfId="7" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{ABD6092A-A7FD-493A-956C-DC32D9056BB4}" name="25 km/h" dataDxfId="6" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{62B7208E-71C7-41EC-A816-81C80E9FB19C}" name="42 km/h" dataDxfId="5" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{922F6E94-A4D5-4EE7-A15F-FE3913259709}" name="Table2712" displayName="Table2712" ref="J1:R2" totalsRowShown="0">
+  <autoFilter ref="J1:R2" xr:uid="{E1F636C5-3C27-4C67-A456-36318F0E48C9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{18C37356-608D-4217-8BCB-3768A58FB387}" name="ratio"/>
+    <tableColumn id="2" xr3:uid="{011D3924-B58F-4AB9-9D55-9C12D5316A39}" name="maxSpeed"/>
+    <tableColumn id="3" xr3:uid="{84256936-7A2A-4616-9CF6-895FDDD0C6FB}" name="minSpeed">
+      <calculatedColumnFormula>Table2712[maxSpeed]/POWER(Table2712[ratio],Table2712[gears]-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B44EA826-1F0C-4236-B3AE-C83BAA76F578}" name="gears"/>
+    <tableColumn id="5" xr3:uid="{AAAD0A68-C683-41DF-A379-DFB9F4B2A006}" name="maxPower">
+      <calculatedColumnFormula>J10*Table2712[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{99C12E8F-1281-4065-A71D-BF3FD443E2EA}" name="ratedRpm"/>
+    <tableColumn id="7" xr3:uid="{24E5E184-8232-4862-99BE-E75902E2A71C}" name="Column1">
+      <calculatedColumnFormula>Table2712[ratedRpm]/Table2712[ratio]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{35807A28-2BEF-4CCE-95D8-1B6CEE610610}" name="ptoRpm">
+      <calculatedColumnFormula>4*540</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2364AB39-0C41-4BD3-85F5-DF25186735DC}" name="torqueScale" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7EA4252A-B181-4527-8C22-916B153187FF}" name="Table3813" displayName="Table3813" ref="J5:O11" totalsRowShown="0">
+  <autoFilter ref="J5:O11" xr:uid="{3CC99175-9B1B-4AA7-9ACE-26F885D440EC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{096F73C8-E140-44E3-ACE5-F26B082F04F1}" name="normRpm">
+      <calculatedColumnFormula>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4DCAA719-2262-4D9C-8209-7D99F9C51673}" name="torque"/>
+    <tableColumn id="3" xr3:uid="{2A7F0F39-292D-43EC-9E5E-BA2B90D3E8BF}" name="RPM" dataDxfId="3">
+      <calculatedColumnFormula>Table3813[[#This Row],[normRpm]]*Table27[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9A2C1CBA-8120-4617-BEC6-4A249B6274A7}" name="power" dataDxfId="2">
+      <calculatedColumnFormula>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{0502A152-E4CD-4FB6-8497-D3B8003EFCEA}" name="kW" dataDxfId="1">
+      <calculatedColumnFormula>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{69D4A435-40E9-441B-BC20-8A858CD9FBD7}" name="PS" dataDxfId="0">
+      <calculatedColumnFormula>Table3813[[#This Row],[kW]]*1.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -462,16 +648,16 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8CC7D7F-992C-42DA-BF08-15C845C07A53}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{7B43EC6B-5EF9-474A-8108-F3915EE086D2}" name="torque"/>
-    <tableColumn id="3" xr3:uid="{402F56DD-8F49-4C86-84B1-02B4D6354ED7}" name="RPM" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{402F56DD-8F49-4C86-84B1-02B4D6354ED7}" name="RPM" dataDxfId="45">
       <calculatedColumnFormula>Table310[[#This Row],[normRpm]]*Table29[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE242F14-9767-469E-9AEF-3C2096F31069}" name="power" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{BE242F14-9767-469E-9AEF-3C2096F31069}" name="power" dataDxfId="44">
       <calculatedColumnFormula>Table310[[#This Row],[normRpm]]*Table310[[#This Row],[torque]]/0.72</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{61C6A831-FAF8-4E59-97F5-E2719B69E923}" name="kW" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{61C6A831-FAF8-4E59-97F5-E2719B69E923}" name="kW" dataDxfId="43">
       <calculatedColumnFormula>Table310[[#This Row],[RPM]]*Table310[[#This Row],[torque]]*Table29[torqueScale]/9548</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BAE11CED-B9FC-40D2-9D47-24FFFE4B998A}" name="PS" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{BAE11CED-B9FC-40D2-9D47-24FFFE4B998A}" name="PS" dataDxfId="42">
       <calculatedColumnFormula>Table310[[#This Row],[kW]]*1.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -484,25 +670,25 @@
   <autoFilter ref="A1:H13" xr:uid="{54E20DC8-9795-434B-BCD6-CEDEC7019710}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{397A696B-210A-43C0-A223-CA56309E9BE9}" name="gear" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{231C21B5-27D4-4A04-BCDE-767578D0F245}" name="speed" dataDxfId="25" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{231C21B5-27D4-4A04-BCDE-767578D0F245}" name="speed" dataDxfId="39" dataCellStyle="Normal">
       <calculatedColumnFormula>B1*Table2[ratio]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{14D6B97D-4581-4FCD-9546-945F72717359}" name="maxPower" dataDxfId="24" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{14D6B97D-4581-4FCD-9546-945F72717359}" name="maxPower" dataDxfId="38" dataCellStyle="Normal">
       <calculatedColumnFormula>Table1[[#This Row],[speed]]*Table2[maxPower]/Table2[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8718932A-F067-4E44-B0CA-791F5793D471}" name="idleSpeed" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{8718932A-F067-4E44-B0CA-791F5793D471}" name="idleSpeed" dataDxfId="37">
       <calculatedColumnFormula>850*Table1[[#This Row],[speed]]/Table2[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8E49D31E-44F0-43F4-B72E-8DE0E6D376A2}" name="10 km/h" dataDxfId="22" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{8E49D31E-44F0-43F4-B72E-8DE0E6D376A2}" name="10 km/h" dataDxfId="36" dataCellStyle="Normal">
       <calculatedColumnFormula>Table2[ratedRpm]*10/Table1[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4DE7EA17-0836-4F93-A2E8-70C09B117BEE}" name="15 km/h" dataDxfId="21" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{4DE7EA17-0836-4F93-A2E8-70C09B117BEE}" name="15 km/h" dataDxfId="35" dataCellStyle="Normal">
       <calculatedColumnFormula>Table2[ratedRpm]*15/Table1[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{25C35523-4656-4DF9-BFEE-76A099FC064D}" name="25 km/h" dataDxfId="20" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{25C35523-4656-4DF9-BFEE-76A099FC064D}" name="25 km/h" dataDxfId="34" dataCellStyle="Normal">
       <calculatedColumnFormula>Table2[ratedRpm]*25/Table1[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6D36146C-789F-4419-AC21-DB3B7521BBF5}" name="42 km/h" dataDxfId="19" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{6D36146C-789F-4419-AC21-DB3B7521BBF5}" name="42 km/h" dataDxfId="33" dataCellStyle="Normal">
       <calculatedColumnFormula>Table2[ratedRpm]*42/Table1[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -530,7 +716,7 @@
     <tableColumn id="8" xr3:uid="{C2C9F3A7-D999-4A12-BCF0-799B76C41C03}" name="ptoRpm">
       <calculatedColumnFormula>4*540</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6FE31B4F-E8DF-41B6-BBD3-F66AE82FAFE6}" name="torqueScale" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{6FE31B4F-E8DF-41B6-BBD3-F66AE82FAFE6}" name="torqueScale" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -542,16 +728,16 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C95513B6-4FD5-4FE1-A99B-AE79024F09EA}" name="normRpm"/>
     <tableColumn id="2" xr3:uid="{543E789A-4FA5-413D-8FCD-6BEC9CC34F78}" name="torque"/>
-    <tableColumn id="3" xr3:uid="{EC42B4E2-8052-4992-85D8-8E698927DC48}" name="RPM" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{EC42B4E2-8052-4992-85D8-8E698927DC48}" name="RPM" dataDxfId="31">
       <calculatedColumnFormula>Table3[[#This Row],[normRpm]]*Table2[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{73865C01-709D-4613-809B-90B2CFA13A68}" name="power" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{73865C01-709D-4613-809B-90B2CFA13A68}" name="power" dataDxfId="30">
       <calculatedColumnFormula>Table3[[#This Row],[normRpm]]*Table3[[#This Row],[torque]]/0.72</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F3271956-6AEE-41C8-B7F4-75278D1B9484}" name="kW" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{F3271956-6AEE-41C8-B7F4-75278D1B9484}" name="kW" dataDxfId="29">
       <calculatedColumnFormula>Table3[[#This Row],[RPM]]*Table3[[#This Row],[torque]]*Table2[torqueScale]/9548</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{926A2AC5-D45A-43B4-91BB-D5C1AC1F4EFA}" name="PS" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{926A2AC5-D45A-43B4-91BB-D5C1AC1F4EFA}" name="PS" dataDxfId="28">
       <calculatedColumnFormula>Table3[[#This Row],[kW]]*1.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -564,25 +750,25 @@
   <autoFilter ref="A1:H13" xr:uid="{54E20DC8-9795-434B-BCD6-CEDEC7019710}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8A15DD4A-1F74-4247-B53E-B8392D81523F}" name="gear" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{D2ECE58D-D2C3-42A1-9AF3-DEFD0420AE13}" name="speed" dataDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{D2ECE58D-D2C3-42A1-9AF3-DEFD0420AE13}" name="speed" dataDxfId="25" dataCellStyle="Normal">
       <calculatedColumnFormula>B1*Table27[ratio]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E38B1B8-A96D-480B-879F-F88540F1C145}" name="maxPower" dataDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{0E38B1B8-A96D-480B-879F-F88540F1C145}" name="maxPower" dataDxfId="24" dataCellStyle="Normal">
       <calculatedColumnFormula>Table16[[#This Row],[speed]]*Table27[maxPower]/Table27[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{63A1E28C-6F2A-4CBB-8909-7E944D6BD877}" name="idleSpeed" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{63A1E28C-6F2A-4CBB-8909-7E944D6BD877}" name="idleSpeed" dataDxfId="23">
       <calculatedColumnFormula>850*Table16[[#This Row],[speed]]/Table27[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0BDB01F3-7D32-4F0B-8377-F106F403AADF}" name="10 km/h" dataDxfId="8" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{0BDB01F3-7D32-4F0B-8377-F106F403AADF}" name="10 km/h" dataDxfId="22" dataCellStyle="Normal">
       <calculatedColumnFormula>Table27[ratedRpm]*10/Table16[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F38C481B-238A-470D-854E-6D5276DE9554}" name="15 km/h" dataDxfId="7" dataCellStyle="Normal">
+    <tableColumn id="5" xr3:uid="{F38C481B-238A-470D-854E-6D5276DE9554}" name="15 km/h" dataDxfId="21" dataCellStyle="Normal">
       <calculatedColumnFormula>Table27[ratedRpm]*15/Table16[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{07B77801-3EDD-4383-B87A-D652911FF80F}" name="25 km/h" dataDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{07B77801-3EDD-4383-B87A-D652911FF80F}" name="25 km/h" dataDxfId="20" dataCellStyle="Normal">
       <calculatedColumnFormula>Table27[ratedRpm]*25/Table16[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{411C3780-45E7-44BA-9025-7D11E8C4FA50}" name="42 km/h" dataDxfId="5" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{411C3780-45E7-44BA-9025-7D11E8C4FA50}" name="42 km/h" dataDxfId="19" dataCellStyle="Normal">
       <calculatedColumnFormula>Table27[ratedRpm]*42/Table16[[#This Row],[speed]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -610,7 +796,7 @@
     <tableColumn id="8" xr3:uid="{F24A46B7-E369-430C-B8AB-5FAC87D0F10F}" name="ptoRpm">
       <calculatedColumnFormula>4*540</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0490B1C-CB4A-4632-8572-6DFF114CE77D}" name="torqueScale" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E0490B1C-CB4A-4632-8572-6DFF114CE77D}" name="torqueScale" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,16 +810,16 @@
       <calculatedColumnFormula>Table38[[#This Row],[RPM]]/Table27[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E42C836B-2FD0-4A99-9461-C871F20D2013}" name="torque"/>
-    <tableColumn id="3" xr3:uid="{0395C766-64E8-46D7-8A5D-37F55E2372C6}" name="RPM" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{0395C766-64E8-46D7-8A5D-37F55E2372C6}" name="RPM" dataDxfId="17">
       <calculatedColumnFormula>Table38[[#This Row],[normRpm]]*Table27[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2C759795-9860-4412-8092-2C54554F7E52}" name="power" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{2C759795-9860-4412-8092-2C54554F7E52}" name="power" dataDxfId="16">
       <calculatedColumnFormula>Table38[[#This Row],[normRpm]]*Table38[[#This Row],[torque]]/0.72</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2AFD82BF-FF38-4BEB-9A1F-4879D5DA022F}" name="kW" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{2AFD82BF-FF38-4BEB-9A1F-4879D5DA022F}" name="kW" dataDxfId="15">
       <calculatedColumnFormula>Table38[[#This Row],[RPM]]*Table38[[#This Row],[torque]]*Table27[torqueScale]/9548</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0EF0691E-6A0A-4AB9-BA45-D38820AE3510}" name="PS" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{0EF0691E-6A0A-4AB9-BA45-D38820AE3510}" name="PS" dataDxfId="14">
       <calculatedColumnFormula>Table38[[#This Row],[kW]]*1.36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -940,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312A3DC-8229-4883-9578-D9DAC42C23BC}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1589,13 +1775,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="between">
       <formula>$L$9</formula>
       <formula>$L$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:H13">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="between">
       <formula>$L$9</formula>
       <formula>$O$2</formula>
     </cfRule>
@@ -2260,13 +2446,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="between">
       <formula>$L$9</formula>
       <formula>$L$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:H13">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="between">
       <formula>$L$9</formula>
       <formula>$O$2</formula>
     </cfRule>
@@ -2931,6 +3117,677 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="between">
+      <formula>$L$9</formula>
+      <formula>$L$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:H13">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
+      <formula>$L$9</formula>
+      <formula>$O$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF273E3C-3C1E-454F-9E82-EC97CEC99190}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Table2712[minSpeed]</f>
+        <v>14.34539253861792</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>14.34539253861792</v>
+      </c>
+      <c r="D2" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>5.5425380262841966</v>
+      </c>
+      <c r="E2" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>1533.5934475669321</v>
+      </c>
+      <c r="F2" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>2300.3901713503983</v>
+      </c>
+      <c r="G2" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>3833.9836189173302</v>
+      </c>
+      <c r="H2" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>6441.0924797811149</v>
+      </c>
+      <c r="J2">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="K2">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <f>Table2712[maxSpeed]/POWER(Table2712[ratio],Table2712[gears]-1)</f>
+        <v>14.34539253861792</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <f>J10*Table2712[ratedRpm]</f>
+        <v>2200</v>
+      </c>
+      <c r="O2">
+        <v>2200</v>
+      </c>
+      <c r="P2">
+        <f>Table2712[ratedRpm]/Table2712[ratio]</f>
+        <v>1813.6850783182192</v>
+      </c>
+      <c r="Q2">
+        <f>4*540</f>
+        <v>2160</v>
+      </c>
+      <c r="R2" s="6">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4">
+        <f>B2*Table2712[ratio]</f>
+        <v>17.400961149343537</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>17.400961149343537</v>
+      </c>
+      <c r="D3" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>6.7230986258827308</v>
+      </c>
+      <c r="E3" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>1264.2979782085179</v>
+      </c>
+      <c r="F3" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>1896.4469673127767</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>3160.7449455212945</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>5310.0515084757744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4">
+        <f>B3*Table2712[ratio]</f>
+        <v>21.107365874153711</v>
+      </c>
+      <c r="C4" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>21.107365874153711</v>
+      </c>
+      <c r="D4" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>8.1551186331957517</v>
+      </c>
+      <c r="E4" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>1042.2901716475826</v>
+      </c>
+      <c r="F4" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>1563.4352574713739</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>2605.7254291189565</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>4377.618720919847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <f>B4*Table2712[ratio]</f>
+        <v>25.603234805348453</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>25.603234805348453</v>
+      </c>
+      <c r="D5" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>9.8921589020664484</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>859.26642345225275</v>
+      </c>
+      <c r="F5" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>1288.8996351783792</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>2148.1660586306321</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>3608.9189784994614</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B5*Table2712[ratio]</f>
+        <v>31.056723818887676</v>
+      </c>
+      <c r="C6" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>31.056723818887676</v>
+      </c>
+      <c r="D6" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>11.999188748206603</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>708.38122296146139</v>
+      </c>
+      <c r="F6" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>1062.5718344421921</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>1770.9530574036535</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>2975.2011364381378</v>
+      </c>
+      <c r="J6">
+        <f>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</f>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>850</v>
+      </c>
+      <c r="M6" s="2">
+        <f>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</f>
+        <v>0.48295454545454547</v>
+      </c>
+      <c r="N6" s="7">
+        <f>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</f>
+        <v>245.81273565144534</v>
+      </c>
+      <c r="O6" s="7">
+        <f>Table3813[[#This Row],[kW]]*1.36</f>
+        <v>334.30532048596569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4">
+        <f>B6*Table2712[ratio]</f>
+        <v>37.671805992310752</v>
+      </c>
+      <c r="C7" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>37.671805992310752</v>
+      </c>
+      <c r="D7" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>14.555015951574608</v>
+      </c>
+      <c r="E7" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>583.9911153845519</v>
+      </c>
+      <c r="F7" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>875.98667307682774</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>1459.9777884613795</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>2452.7626846151179</v>
+      </c>
+      <c r="J7">
+        <f>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="2">
+        <f>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</f>
+        <v>0.63131313131313127</v>
+      </c>
+      <c r="N7" s="7">
+        <f>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</f>
+        <v>321.32383745286972</v>
+      </c>
+      <c r="O7" s="7">
+        <f>Table3813[[#This Row],[kW]]*1.36</f>
+        <v>437.00041893590287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B7*Table2712[ratio]</f>
+        <v>45.695900668672948</v>
+      </c>
+      <c r="C8" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>45.695900668672948</v>
+      </c>
+      <c r="D8" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>17.655234349260002</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>481.44362356517047</v>
+      </c>
+      <c r="F8" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>722.16543534775565</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>1203.6090589129262</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>2022.0632189737159</v>
+      </c>
+      <c r="J8">
+        <f>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</f>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1450</v>
+      </c>
+      <c r="M8" s="2">
+        <f>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</f>
+        <v>0.91540404040404044</v>
+      </c>
+      <c r="N8" s="7">
+        <f>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</f>
+        <v>465.91956430666107</v>
+      </c>
+      <c r="O8" s="7">
+        <f>Table3813[[#This Row],[kW]]*1.36</f>
+        <v>633.6506074570591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B8*Table2712[ratio]</f>
+        <v>55.42912751110029</v>
+      </c>
+      <c r="C9" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>55.42912751110029</v>
+      </c>
+      <c r="D9" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>21.415799265652385</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>396.90323459618338</v>
+      </c>
+      <c r="F9" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>595.35485189427504</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>992.25808649045837</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>1666.9935853039701</v>
+      </c>
+      <c r="J9">
+        <f>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</f>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>1900</v>
+      </c>
+      <c r="M9" s="2">
+        <f>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</f>
+        <v>0.89962121212121215</v>
+      </c>
+      <c r="N9" s="7">
+        <f>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</f>
+        <v>457.88646837033934</v>
+      </c>
+      <c r="O9" s="7">
+        <f>Table3813[[#This Row],[kW]]*1.36</f>
+        <v>622.7255969836616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B9*Table2712[ratio]</f>
+        <v>67.235531670964662</v>
+      </c>
+      <c r="C10" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>67.235531670964662</v>
+      </c>
+      <c r="D10" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>25.977364509236345</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>327.20794278333329</v>
+      </c>
+      <c r="F10" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>490.81191417499997</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>818.01985695833332</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>1374.27335969</v>
+      </c>
+      <c r="J10">
+        <f>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.63</v>
+      </c>
+      <c r="L10">
+        <v>2200</v>
+      </c>
+      <c r="M10" s="2">
+        <f>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</f>
+        <v>0.875</v>
+      </c>
+      <c r="N10" s="7">
+        <f>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</f>
+        <v>445.35483870967744</v>
+      </c>
+      <c r="O10" s="7">
+        <f>Table3813[[#This Row],[kW]]*1.36</f>
+        <v>605.68258064516135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10*Table2712[ratio]</f>
+        <v>81.556699916880135</v>
+      </c>
+      <c r="C11" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>81.556699916880135</v>
+      </c>
+      <c r="D11" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>31.51054314970369</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>269.75098333333329</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>404.62647499999997</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>674.37745833333327</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>1132.9541299999999</v>
+      </c>
+      <c r="J11">
+        <f>Table3813[[#This Row],[RPM]]/Table2712[ratedRpm]</f>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+      <c r="L11">
+        <v>2500</v>
+      </c>
+      <c r="M11" s="2">
+        <f>Table3813[[#This Row],[normRpm]]*Table3813[[#This Row],[torque]]/0.72</f>
+        <v>0.31565656565656569</v>
+      </c>
+      <c r="N11" s="7">
+        <f>Table3813[[#This Row],[RPM]]*Table3813[[#This Row],[torque]]*Table2712[torqueScale]/9548</f>
+        <v>160.66191872643486</v>
+      </c>
+      <c r="O11" s="7">
+        <f>Table3813[[#This Row],[kW]]*1.36</f>
+        <v>218.50020946795144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B11*Table2712[ratio]</f>
+        <v>98.928276999175608</v>
+      </c>
+      <c r="C12" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>98.928276999175608</v>
+      </c>
+      <c r="D12" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>38.222288840590572</v>
+      </c>
+      <c r="E12" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>222.3833333333333</v>
+      </c>
+      <c r="F12" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>333.57499999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>555.95833333333326</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>934.00999999999988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12*Table2712[ratio]</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <f>Table1611[[#This Row],[speed]]*Table2712[maxPower]/Table2712[ratedRpm]</f>
+        <v>120.00000000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <f>850*Table1611[[#This Row],[speed]]/Table2712[ratedRpm]</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="E13" s="5">
+        <f>Table2712[ratedRpm]*10/Table1611[[#This Row],[speed]]</f>
+        <v>183.33333333333331</v>
+      </c>
+      <c r="F13" s="5">
+        <f>Table2712[ratedRpm]*15/Table1611[[#This Row],[speed]]</f>
+        <v>274.99999999999994</v>
+      </c>
+      <c r="G13" s="5">
+        <f>Table2712[ratedRpm]*25/Table1611[[#This Row],[speed]]</f>
+        <v>458.33333333333326</v>
+      </c>
+      <c r="H13" s="5">
+        <f>Table2712[ratedRpm]*42/Table1611[[#This Row],[speed]]</f>
+        <v>769.99999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
       <formula>$L$9</formula>
       <formula>$L$11</formula>
